--- a/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/study_set_18.xlsx
+++ b/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/study_set_18.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franzprante/Nextcloud/project-vwl4makro/09_Forschung/Drittmittel/DZ2022/WP1_Meta_monetary/HIWI_MP/Full text download/packages_for_full_text_download/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franzprante/GitHub/MORPEP/META_CMP/data/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D0B8D8-F644-6E47-A951-09BDA903E43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740ECBE6-29A9-FC4D-9781-5142D6B2F05E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4980" yWindow="-21100" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -3101,8 +3101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="87" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="AG1" sqref="AG1:AG1048576"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="132" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="AI100" sqref="AI100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3292,6 +3292,9 @@
       <c r="Y2" t="s">
         <v>46</v>
       </c>
+      <c r="AG2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -3360,6 +3363,9 @@
       <c r="Y3" t="s">
         <v>46</v>
       </c>
+      <c r="AG3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -3431,6 +3437,9 @@
       <c r="Y4" t="s">
         <v>46</v>
       </c>
+      <c r="AG4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -3502,6 +3511,9 @@
       <c r="Y5" t="s">
         <v>46</v>
       </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -3573,6 +3585,9 @@
       <c r="Y6" t="s">
         <v>46</v>
       </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -3647,6 +3662,9 @@
       <c r="Y7" t="s">
         <v>46</v>
       </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -3721,6 +3739,9 @@
       <c r="Y8" t="s">
         <v>46</v>
       </c>
+      <c r="AG8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -3783,6 +3804,9 @@
       <c r="Y9" t="s">
         <v>46</v>
       </c>
+      <c r="AG9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -3854,6 +3878,9 @@
       <c r="Y10" t="s">
         <v>46</v>
       </c>
+      <c r="AG10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -3999,6 +4026,9 @@
       <c r="Y12" t="s">
         <v>46</v>
       </c>
+      <c r="AG12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -4070,6 +4100,9 @@
       <c r="Y13" t="s">
         <v>46</v>
       </c>
+      <c r="AG13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -4141,6 +4174,9 @@
       <c r="Y14" t="s">
         <v>46</v>
       </c>
+      <c r="AG14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -4206,6 +4242,9 @@
       <c r="Y15" t="s">
         <v>46</v>
       </c>
+      <c r="AG15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -4271,6 +4310,9 @@
       <c r="Y16" t="s">
         <v>46</v>
       </c>
+      <c r="AG16">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17">
@@ -4413,6 +4455,9 @@
       <c r="Y18" t="s">
         <v>46</v>
       </c>
+      <c r="AG18">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A19">
@@ -4481,6 +4526,9 @@
       <c r="Y19" t="s">
         <v>46</v>
       </c>
+      <c r="AG19">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20">
@@ -4549,6 +4597,9 @@
       <c r="Y20" t="s">
         <v>46</v>
       </c>
+      <c r="AG20">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A21">
@@ -4605,6 +4656,9 @@
       <c r="Y21" t="s">
         <v>46</v>
       </c>
+      <c r="AG21">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A22">
@@ -4667,6 +4721,9 @@
       <c r="Y22" t="s">
         <v>46</v>
       </c>
+      <c r="AG22">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23">
@@ -4738,6 +4795,9 @@
       <c r="Y23" t="s">
         <v>46</v>
       </c>
+      <c r="AG23">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24">
@@ -4809,6 +4869,9 @@
       <c r="Y24" t="s">
         <v>46</v>
       </c>
+      <c r="AG24">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25">
@@ -4880,6 +4943,9 @@
       <c r="Y25" t="s">
         <v>46</v>
       </c>
+      <c r="AG25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A26">
@@ -4942,6 +5008,9 @@
       <c r="Y26" t="s">
         <v>46</v>
       </c>
+      <c r="AG26">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27">
@@ -5013,6 +5082,9 @@
       <c r="Y27" t="s">
         <v>46</v>
       </c>
+      <c r="AG27">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A28">
@@ -5087,6 +5159,9 @@
       <c r="Y28" t="s">
         <v>46</v>
       </c>
+      <c r="AG28">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A29">
@@ -5152,6 +5227,9 @@
       <c r="Y29" t="s">
         <v>46</v>
       </c>
+      <c r="AG29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A30">
@@ -5214,6 +5292,9 @@
       <c r="Y30" t="s">
         <v>46</v>
       </c>
+      <c r="AG30">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A31">
@@ -5362,6 +5443,9 @@
       <c r="Y32" t="s">
         <v>46</v>
       </c>
+      <c r="AG32">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A33">
@@ -5510,6 +5594,9 @@
       <c r="Y34" t="s">
         <v>46</v>
       </c>
+      <c r="AG34">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A35">
@@ -5581,6 +5668,9 @@
       <c r="Y35" t="s">
         <v>46</v>
       </c>
+      <c r="AG35">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A36">
@@ -5652,6 +5742,9 @@
       <c r="Y36" t="s">
         <v>46</v>
       </c>
+      <c r="AG36">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A37">
@@ -5726,6 +5819,9 @@
       <c r="Y37" t="s">
         <v>46</v>
       </c>
+      <c r="AG37">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A38">
@@ -5788,6 +5884,9 @@
       <c r="Y38" t="s">
         <v>46</v>
       </c>
+      <c r="AG38">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A39">
@@ -5850,6 +5949,9 @@
       <c r="Y39" t="s">
         <v>46</v>
       </c>
+      <c r="AG39">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A40">
@@ -5924,6 +6026,9 @@
       <c r="Y40" t="s">
         <v>46</v>
       </c>
+      <c r="AG40">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A41">
@@ -5995,6 +6100,9 @@
       <c r="Y41" t="s">
         <v>46</v>
       </c>
+      <c r="AG41">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A42">
@@ -6066,6 +6174,9 @@
       <c r="Y42" t="s">
         <v>46</v>
       </c>
+      <c r="AG42">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A43">
@@ -6214,6 +6325,9 @@
       <c r="Y44" t="s">
         <v>46</v>
       </c>
+      <c r="AG44">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A45">
@@ -6362,6 +6476,9 @@
       <c r="Y46" t="s">
         <v>46</v>
       </c>
+      <c r="AG46">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A47">
@@ -6436,6 +6553,9 @@
       <c r="Y47" t="s">
         <v>46</v>
       </c>
+      <c r="AG47">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A48">
@@ -6507,6 +6627,9 @@
       <c r="Y48" t="s">
         <v>46</v>
       </c>
+      <c r="AG48">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A49">
@@ -6578,6 +6701,9 @@
       <c r="Y49" t="s">
         <v>46</v>
       </c>
+      <c r="AG49">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A50">
@@ -6649,6 +6775,9 @@
       <c r="Y50" t="s">
         <v>46</v>
       </c>
+      <c r="AG50">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A51">
@@ -6711,6 +6840,9 @@
       <c r="Y51" t="s">
         <v>46</v>
       </c>
+      <c r="AG51">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A52">
@@ -6770,6 +6902,9 @@
       <c r="Y52" t="s">
         <v>46</v>
       </c>
+      <c r="AG52">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A53">
@@ -6844,6 +6979,9 @@
       <c r="Y53" t="s">
         <v>46</v>
       </c>
+      <c r="AG53">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A54">
@@ -6918,6 +7056,9 @@
       <c r="Y54" t="s">
         <v>46</v>
       </c>
+      <c r="AG54">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A55">
@@ -6989,6 +7130,9 @@
       <c r="Y55" t="s">
         <v>46</v>
       </c>
+      <c r="AG55">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A56">
@@ -7137,6 +7281,9 @@
       <c r="Y57" t="s">
         <v>46</v>
       </c>
+      <c r="AG57">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A58">
@@ -7208,6 +7355,9 @@
       <c r="Y58" t="s">
         <v>46</v>
       </c>
+      <c r="AG58">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A59">
@@ -7282,6 +7432,9 @@
       <c r="Y59" t="s">
         <v>46</v>
       </c>
+      <c r="AG59">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A60">
@@ -7356,6 +7509,9 @@
       <c r="Y60" t="s">
         <v>46</v>
       </c>
+      <c r="AG60">
+        <v>1</v>
+      </c>
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A61">
@@ -7427,6 +7583,9 @@
       <c r="Y61" t="s">
         <v>46</v>
       </c>
+      <c r="AG61">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A62">
@@ -7501,6 +7660,9 @@
       <c r="Y62" t="s">
         <v>46</v>
       </c>
+      <c r="AG62">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A63">
@@ -7572,6 +7734,9 @@
       <c r="Y63" t="s">
         <v>46</v>
       </c>
+      <c r="AG63">
+        <v>1</v>
+      </c>
     </row>
     <row r="64" spans="1:34" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64">
@@ -7646,6 +7811,9 @@
       <c r="Y64" t="s">
         <v>46</v>
       </c>
+      <c r="AG64">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A65">
@@ -7717,6 +7885,9 @@
       <c r="Y65" t="s">
         <v>46</v>
       </c>
+      <c r="AG65">
+        <v>1</v>
+      </c>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A66">
@@ -7779,6 +7950,9 @@
       <c r="Y66" t="s">
         <v>46</v>
       </c>
+      <c r="AG66">
+        <v>1</v>
+      </c>
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A67">
@@ -7850,6 +8024,9 @@
       <c r="Y67" t="s">
         <v>46</v>
       </c>
+      <c r="AG67">
+        <v>1</v>
+      </c>
     </row>
     <row r="68" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A68">
@@ -7921,6 +8098,9 @@
       <c r="Y68" t="s">
         <v>46</v>
       </c>
+      <c r="AG68">
+        <v>1</v>
+      </c>
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A69">
@@ -7995,6 +8175,9 @@
       <c r="Y69" t="s">
         <v>46</v>
       </c>
+      <c r="AG69">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A70">
@@ -8057,6 +8240,9 @@
       <c r="Y70" t="s">
         <v>46</v>
       </c>
+      <c r="AG70">
+        <v>1</v>
+      </c>
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A71">
@@ -8134,6 +8320,9 @@
       <c r="Y71" t="s">
         <v>46</v>
       </c>
+      <c r="AG71">
+        <v>1</v>
+      </c>
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A72">
@@ -8205,6 +8394,9 @@
       <c r="Y72" t="s">
         <v>46</v>
       </c>
+      <c r="AG72">
+        <v>1</v>
+      </c>
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A73">
@@ -8279,6 +8471,9 @@
       <c r="Y73" t="s">
         <v>46</v>
       </c>
+      <c r="AG73">
+        <v>1</v>
+      </c>
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A74">
@@ -8353,6 +8548,9 @@
       <c r="Y74" t="s">
         <v>46</v>
       </c>
+      <c r="AG74">
+        <v>1</v>
+      </c>
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A75">
@@ -8424,6 +8622,9 @@
       <c r="Y75" t="s">
         <v>46</v>
       </c>
+      <c r="AG75">
+        <v>1</v>
+      </c>
     </row>
     <row r="76" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A76">
@@ -8492,6 +8693,9 @@
       <c r="Y76" t="s">
         <v>46</v>
       </c>
+      <c r="AG76">
+        <v>1</v>
+      </c>
     </row>
     <row r="77" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A77">
@@ -8563,6 +8767,9 @@
       <c r="Y77" t="s">
         <v>46</v>
       </c>
+      <c r="AG77">
+        <v>1</v>
+      </c>
     </row>
     <row r="78" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A78">
@@ -8637,6 +8844,9 @@
       <c r="Y78" t="s">
         <v>46</v>
       </c>
+      <c r="AG78">
+        <v>1</v>
+      </c>
     </row>
     <row r="79" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A79">
@@ -8785,8 +8995,11 @@
       <c r="Y80" t="s">
         <v>46</v>
       </c>
+      <c r="AG80">
+        <v>1</v>
+      </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>385</v>
       </c>
@@ -8856,8 +9069,11 @@
       <c r="Y81" t="s">
         <v>46</v>
       </c>
+      <c r="AG81">
+        <v>1</v>
+      </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>7182</v>
       </c>
@@ -8930,8 +9146,11 @@
       <c r="Y82" t="s">
         <v>46</v>
       </c>
+      <c r="AG82">
+        <v>1</v>
+      </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1969</v>
       </c>
@@ -9004,8 +9223,11 @@
       <c r="Y83" t="s">
         <v>46</v>
       </c>
+      <c r="AG83">
+        <v>1</v>
+      </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1826</v>
       </c>
@@ -9078,8 +9300,11 @@
       <c r="Y84" t="s">
         <v>46</v>
       </c>
+      <c r="AG84">
+        <v>1</v>
+      </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>7759</v>
       </c>
@@ -9149,8 +9374,11 @@
       <c r="Y85" t="s">
         <v>46</v>
       </c>
+      <c r="AG85">
+        <v>1</v>
+      </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>10013</v>
       </c>
@@ -9223,8 +9451,11 @@
       <c r="Y86" t="s">
         <v>46</v>
       </c>
+      <c r="AG86">
+        <v>1</v>
+      </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>10502</v>
       </c>
@@ -9294,8 +9525,11 @@
       <c r="Y87" t="s">
         <v>46</v>
       </c>
+      <c r="AG87">
+        <v>1</v>
+      </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>9961</v>
       </c>
@@ -9362,8 +9596,11 @@
       <c r="Y88" t="s">
         <v>46</v>
       </c>
+      <c r="AG88">
+        <v>1</v>
+      </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>19</v>
       </c>
@@ -9424,8 +9661,11 @@
       <c r="Y89" t="s">
         <v>46</v>
       </c>
+      <c r="AG89">
+        <v>1</v>
+      </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>2820</v>
       </c>
@@ -9492,8 +9732,11 @@
       <c r="Y90" t="s">
         <v>46</v>
       </c>
+      <c r="AG90">
+        <v>1</v>
+      </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>560</v>
       </c>
@@ -9560,8 +9803,11 @@
       <c r="Y91" t="s">
         <v>46</v>
       </c>
+      <c r="AG91">
+        <v>1</v>
+      </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>10199</v>
       </c>
@@ -9622,8 +9868,11 @@
       <c r="Y92" t="s">
         <v>46</v>
       </c>
+      <c r="AG92">
+        <v>1</v>
+      </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>917</v>
       </c>
@@ -9693,8 +9942,11 @@
       <c r="Y93" t="s">
         <v>46</v>
       </c>
+      <c r="AG93">
+        <v>1</v>
+      </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>2192</v>
       </c>
@@ -9764,8 +10016,11 @@
       <c r="Y94" t="s">
         <v>46</v>
       </c>
+      <c r="AG94">
+        <v>1</v>
+      </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>1239</v>
       </c>
@@ -9835,8 +10090,11 @@
       <c r="Y95" t="s">
         <v>46</v>
       </c>
+      <c r="AG95">
+        <v>1</v>
+      </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>9221</v>
       </c>
@@ -9908,6 +10166,9 @@
       </c>
       <c r="Y96" t="s">
         <v>46</v>
+      </c>
+      <c r="AG96">
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:34" x14ac:dyDescent="0.2">
@@ -9983,6 +10244,9 @@
       <c r="Y97" t="s">
         <v>46</v>
       </c>
+      <c r="AG97">
+        <v>1</v>
+      </c>
     </row>
     <row r="98" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A98">
@@ -10036,6 +10300,9 @@
       <c r="Y98" t="s">
         <v>46</v>
       </c>
+      <c r="AG98">
+        <v>1</v>
+      </c>
     </row>
     <row r="99" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A99">
@@ -10107,6 +10374,9 @@
       <c r="Y99" t="s">
         <v>46</v>
       </c>
+      <c r="AG99">
+        <v>1</v>
+      </c>
     </row>
     <row r="100" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A100">
@@ -10174,6 +10444,9 @@
       </c>
       <c r="Y100" t="s">
         <v>46</v>
+      </c>
+      <c r="AG100">
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:34" x14ac:dyDescent="0.2">

--- a/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/study_set_18.xlsx
+++ b/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/study_set_18.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franzprante/GitHub/MORPEP/META_CMP/data/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1790465-D34C-CE4C-A8E2-1F372A17D458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5FFECF-C597-C440-B253-03BE79E75CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="740" windowWidth="20520" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -3113,8 +3113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="150" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="AC6" sqref="AC6"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="150" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
